--- a/Code/Results/Cases/Case_4_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.640586149101807</v>
+        <v>1.533109716989713</v>
       </c>
       <c r="C2">
-        <v>0.4713754044598772</v>
+        <v>0.1543646454752547</v>
       </c>
       <c r="D2">
-        <v>0.1976949718203684</v>
+        <v>0.07743884050346139</v>
       </c>
       <c r="E2">
-        <v>0.04248275827003578</v>
+        <v>0.07931802388768106</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.982907469363312</v>
+        <v>2.339728432799404</v>
       </c>
       <c r="H2">
-        <v>1.65687564905673</v>
+        <v>1.822285499500623</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1488225974147852</v>
+        <v>0.1929245253808247</v>
       </c>
       <c r="M2">
-        <v>0.4346156950975555</v>
+        <v>0.3115730814082909</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.283672801889622</v>
+        <v>1.451471518257051</v>
       </c>
       <c r="C3">
-        <v>0.4154320181544904</v>
+        <v>0.1378724350559821</v>
       </c>
       <c r="D3">
-        <v>0.1704176690946326</v>
+        <v>0.07038185066704727</v>
       </c>
       <c r="E3">
-        <v>0.04233111361883335</v>
+        <v>0.07924734858596338</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.685170793283618</v>
+        <v>2.270569127427819</v>
       </c>
       <c r="H3">
-        <v>1.524598745700786</v>
+        <v>1.795776888863912</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.134772406099593</v>
+        <v>0.1905517593952339</v>
       </c>
       <c r="M3">
-        <v>0.3782014342623015</v>
+        <v>0.299297891348651</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.068422804612908</v>
+        <v>1.402432580623554</v>
       </c>
       <c r="C4">
-        <v>0.3814187461785821</v>
+        <v>0.1276799121132228</v>
       </c>
       <c r="D4">
-        <v>0.1539928195510925</v>
+        <v>0.06609154514812587</v>
       </c>
       <c r="E4">
-        <v>0.04224760854356835</v>
+        <v>0.07920340269332382</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.508245109342596</v>
+        <v>2.229289719950401</v>
       </c>
       <c r="H4">
-        <v>1.44644355517579</v>
+        <v>1.780308884845141</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.126394955399185</v>
+        <v>0.1891946997608684</v>
       </c>
       <c r="M4">
-        <v>0.3442454969669626</v>
+        <v>0.291974670912424</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.981555119125005</v>
+        <v>1.382721376698214</v>
       </c>
       <c r="C5">
-        <v>0.3676221740557253</v>
+        <v>0.1235094406980295</v>
       </c>
       <c r="D5">
-        <v>0.147369579535237</v>
+        <v>0.06435377508535112</v>
       </c>
       <c r="E5">
-        <v>0.04221569357652677</v>
+        <v>0.07918534789528953</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.437462683758866</v>
+        <v>2.212762921298946</v>
       </c>
       <c r="H5">
-        <v>1.415287749310437</v>
+        <v>1.774207552401094</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1230378472828519</v>
+        <v>0.1886667605471644</v>
       </c>
       <c r="M5">
-        <v>0.3305586077277454</v>
+        <v>0.2890440336207192</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.967178434744994</v>
+        <v>1.379464784777781</v>
       </c>
       <c r="C6">
-        <v>0.3653345757917634</v>
+        <v>0.1228159061945462</v>
       </c>
       <c r="D6">
-        <v>0.146273711988087</v>
+        <v>0.06406585262300268</v>
       </c>
       <c r="E6">
-        <v>0.04221051362002037</v>
+        <v>0.07918234083124487</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.425784291707515</v>
+        <v>2.210036382411118</v>
       </c>
       <c r="H6">
-        <v>1.410154079594349</v>
+        <v>1.773206594378422</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1224836665921458</v>
+        <v>0.1885806102131298</v>
       </c>
       <c r="M6">
-        <v>0.3282944110810604</v>
+        <v>0.2885606393703952</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.067248006283648</v>
+        <v>1.402165645930438</v>
       </c>
       <c r="C7">
-        <v>0.3812324467719748</v>
+        <v>0.1276237366097916</v>
       </c>
       <c r="D7">
-        <v>0.1539032269725453</v>
+        <v>0.0660680664281017</v>
       </c>
       <c r="E7">
-        <v>0.04224716994160449</v>
+        <v>0.07920315980287718</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.507285389632955</v>
+        <v>2.229065643717945</v>
       </c>
       <c r="H7">
-        <v>1.446020668082582</v>
+        <v>1.780225783938789</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1263494578927435</v>
+        <v>0.1891874783024505</v>
       </c>
       <c r="M7">
-        <v>0.3440603283822981</v>
+        <v>0.2919349303126921</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.51663079541828</v>
+        <v>1.504734663841703</v>
       </c>
       <c r="C8">
-        <v>0.4520034036951301</v>
+        <v>0.1486917051171588</v>
       </c>
       <c r="D8">
-        <v>0.1882154602450186</v>
+        <v>0.0749966158950599</v>
       </c>
       <c r="E8">
-        <v>0.04242828529218312</v>
+        <v>0.07929376459233373</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.878922971805508</v>
+        <v>2.315634587036101</v>
       </c>
       <c r="H8">
-        <v>1.610582070888626</v>
+        <v>1.812976770723282</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1439225743810795</v>
+        <v>0.1920856571840233</v>
       </c>
       <c r="M8">
-        <v>0.4150089701112591</v>
+        <v>0.3072961400253362</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.435436416904679</v>
+        <v>1.714551157517576</v>
       </c>
       <c r="C9">
-        <v>0.5944948372915349</v>
+        <v>0.189494969528198</v>
       </c>
       <c r="D9">
-        <v>0.2586405302149473</v>
+        <v>0.092853338048414</v>
       </c>
       <c r="E9">
-        <v>0.04287529910210219</v>
+        <v>0.07946743185176131</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.662655472128364</v>
+        <v>2.494941826692639</v>
       </c>
       <c r="H9">
-        <v>1.961483380519866</v>
+        <v>1.883677835080732</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1806619263069891</v>
+        <v>0.1985629841359184</v>
       </c>
       <c r="M9">
-        <v>0.5606294142919026</v>
+        <v>0.3391238050378576</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.143941518816803</v>
+        <v>1.874087377492174</v>
       </c>
       <c r="C10">
-        <v>0.7031132582212365</v>
+        <v>0.2191848000686605</v>
       </c>
       <c r="D10">
-        <v>0.3131994323067744</v>
+        <v>0.1061985205480909</v>
       </c>
       <c r="E10">
-        <v>0.04328532467341017</v>
+        <v>0.07959309178150975</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.284994108936331</v>
+        <v>2.632715167387829</v>
       </c>
       <c r="H10">
-        <v>2.242624637341862</v>
+        <v>1.939663467977056</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2095152101144038</v>
+        <v>0.2038094517279916</v>
       </c>
       <c r="M10">
-        <v>0.6732748251125003</v>
+        <v>0.3635610544735144</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.476298336753985</v>
+        <v>1.947855668173986</v>
       </c>
       <c r="C11">
-        <v>0.7538238729854356</v>
+        <v>0.232634131775967</v>
       </c>
       <c r="D11">
-        <v>0.3388682784610921</v>
+        <v>0.1123217188809065</v>
       </c>
       <c r="E11">
-        <v>0.0434966504074592</v>
+        <v>0.0796499493889844</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.581630164744126</v>
+        <v>2.696750523913863</v>
       </c>
       <c r="H11">
-        <v>2.377200295450564</v>
+        <v>1.966031093588242</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2231682736253333</v>
+        <v>0.2063029207502751</v>
       </c>
       <c r="M11">
-        <v>0.7261949209642751</v>
+        <v>0.3749103662924327</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.603870428073492</v>
+        <v>1.975963022450969</v>
       </c>
       <c r="C12">
-        <v>0.7732574606197886</v>
+        <v>0.2377192657182263</v>
       </c>
       <c r="D12">
-        <v>0.3487337194034978</v>
+        <v>0.114648176339216</v>
       </c>
       <c r="E12">
-        <v>0.04358096688881696</v>
+        <v>0.07967144498094059</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.696238515582763</v>
+        <v>2.721198459571326</v>
       </c>
       <c r="H12">
-        <v>2.429279300667986</v>
+        <v>1.97614673323335</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2284261307972741</v>
+        <v>0.2072625489766438</v>
       </c>
       <c r="M12">
-        <v>0.7465191295519844</v>
+        <v>0.3792417407652593</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.576314452709312</v>
+        <v>1.969901892172118</v>
       </c>
       <c r="C13">
-        <v>0.7690610642028162</v>
+        <v>0.23662443446824</v>
       </c>
       <c r="D13">
-        <v>0.3466021590458155</v>
+        <v>0.1141467848791109</v>
       </c>
       <c r="E13">
-        <v>0.04356260393314981</v>
+        <v>0.07966681694263333</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.671448375704983</v>
+        <v>2.715924248992792</v>
       </c>
       <c r="H13">
-        <v>2.418010673155152</v>
+        <v>1.973962308993237</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2272896476257671</v>
+        <v>0.2070551899718538</v>
       </c>
       <c r="M13">
-        <v>0.742128534387632</v>
+        <v>0.378307402890897</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.486757692583183</v>
+        <v>1.950164605170414</v>
       </c>
       <c r="C14">
-        <v>0.7554177897672503</v>
+        <v>0.2330526439896516</v>
       </c>
       <c r="D14">
-        <v>0.3396768601438822</v>
+        <v>0.1125129617621354</v>
       </c>
       <c r="E14">
-        <v>0.0435034965213279</v>
+        <v>0.07965171849777164</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.591011310464864</v>
+        <v>2.698757860049398</v>
       </c>
       <c r="H14">
-        <v>2.381461474584853</v>
+        <v>1.966860683732079</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2235990082218962</v>
+        <v>0.2063815609293584</v>
       </c>
       <c r="M14">
-        <v>0.7278610325667572</v>
+        <v>0.3752660359142084</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.432133732188902</v>
+        <v>1.938097498833542</v>
       </c>
       <c r="C15">
-        <v>0.7470923328492631</v>
+        <v>0.2308638083416952</v>
       </c>
       <c r="D15">
-        <v>0.335454565346609</v>
+        <v>0.1115132112261392</v>
       </c>
       <c r="E15">
-        <v>0.04346787428177534</v>
+        <v>0.07964246595035429</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.542048761314902</v>
+        <v>2.68826898429819</v>
       </c>
       <c r="H15">
-        <v>2.359224706221426</v>
+        <v>1.962527809438257</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2213501923630048</v>
+        <v>0.2059709513062842</v>
       </c>
       <c r="M15">
-        <v>0.719160223329645</v>
+        <v>0.3734074966501026</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.122445727872389</v>
+        <v>1.869290578307016</v>
       </c>
       <c r="C16">
-        <v>0.6998289341414363</v>
+        <v>0.2183047404424485</v>
       </c>
       <c r="D16">
-        <v>0.3115409042415536</v>
+        <v>0.10579942665602</v>
       </c>
       <c r="E16">
-        <v>0.04327207219285256</v>
+        <v>0.07958937060211424</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.265907898696923</v>
+        <v>2.628557989645401</v>
       </c>
       <c r="H16">
-        <v>2.233977198122147</v>
+        <v>1.937958504879759</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2086345439414004</v>
+        <v>0.2036486509970814</v>
       </c>
       <c r="M16">
-        <v>0.669853684853841</v>
+        <v>0.3628240473872424</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.93521736014867</v>
+        <v>1.827386488562126</v>
       </c>
       <c r="C17">
-        <v>0.6711962463690213</v>
+        <v>0.2105858568837959</v>
       </c>
       <c r="D17">
-        <v>0.2971036451547491</v>
+        <v>0.1023077684346561</v>
       </c>
       <c r="E17">
-        <v>0.0431587827776212</v>
+        <v>0.07955672626029853</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.100192198380284</v>
+        <v>2.59227832881507</v>
       </c>
       <c r="H17">
-        <v>2.158958418689679</v>
+        <v>1.923117435960989</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2009769684138547</v>
+        <v>0.2022513862934829</v>
       </c>
       <c r="M17">
-        <v>0.6400642011025113</v>
+        <v>0.3563911634029537</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.828456613520927</v>
+        <v>1.803396721833622</v>
       </c>
       <c r="C18">
-        <v>0.6548468200575144</v>
+        <v>0.2061408007130296</v>
       </c>
       <c r="D18">
-        <v>0.2888781382551002</v>
+        <v>0.1003043797765031</v>
       </c>
       <c r="E18">
-        <v>0.04309590588001222</v>
+        <v>0.07953792078850719</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.006127973332639</v>
+        <v>2.571539183374739</v>
       </c>
       <c r="H18">
-        <v>2.116428005676852</v>
+        <v>1.914665821495106</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1966213887785955</v>
+        <v>0.2014577686606032</v>
       </c>
       <c r="M18">
-        <v>0.6230850028574082</v>
+        <v>0.3527130290093936</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.792461054358569</v>
+        <v>1.795293462528718</v>
       </c>
       <c r="C19">
-        <v>0.6493304574944432</v>
+        <v>0.2046348511131271</v>
       </c>
       <c r="D19">
-        <v>0.2861059435814326</v>
+        <v>0.09962690594058188</v>
       </c>
       <c r="E19">
-        <v>0.04307498912891661</v>
+        <v>0.07953154827841968</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.974484937001051</v>
+        <v>2.564539140262667</v>
       </c>
       <c r="H19">
-        <v>2.102129725882833</v>
+        <v>1.911818732165955</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1951547198336385</v>
+        <v>0.2011907884972572</v>
       </c>
       <c r="M19">
-        <v>0.6173615254099616</v>
+        <v>0.35147143032966</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.955050257643563</v>
+        <v>1.831835613782744</v>
       </c>
       <c r="C20">
-        <v>0.6742315985445657</v>
+        <v>0.2114080975056822</v>
       </c>
       <c r="D20">
-        <v>0.2986322433281856</v>
+        <v>0.1026789506971824</v>
       </c>
       <c r="E20">
-        <v>0.04317060138487117</v>
+        <v>0.07956020427607458</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.117701177894133</v>
+        <v>2.596127093579156</v>
       </c>
       <c r="H20">
-        <v>2.16687922722744</v>
+        <v>1.924688529370513</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2017869932759311</v>
+        <v>0.202399086840515</v>
       </c>
       <c r="M20">
-        <v>0.6432190141316383</v>
+        <v>0.3570736880639203</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.513013766142251</v>
+        <v>1.955957222909547</v>
       </c>
       <c r="C21">
-        <v>0.7594185096081105</v>
+        <v>0.2341019755105833</v>
       </c>
       <c r="D21">
-        <v>0.3417068471498368</v>
+        <v>0.1129926436859279</v>
       </c>
       <c r="E21">
-        <v>0.04352073486593255</v>
+        <v>0.07965615416028626</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.614572883328663</v>
+        <v>2.703794613305718</v>
       </c>
       <c r="H21">
-        <v>2.392165146506329</v>
+        <v>1.96894304193637</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2246805542065999</v>
+        <v>0.2065790036406696</v>
       </c>
       <c r="M21">
-        <v>0.732043644687991</v>
+        <v>0.3761584447906685</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.887831869661682</v>
+        <v>2.038086248755121</v>
       </c>
       <c r="C22">
-        <v>0.8164626105902357</v>
+        <v>0.2488882163031292</v>
       </c>
       <c r="D22">
-        <v>0.3707182150648265</v>
+        <v>0.1197784190673303</v>
       </c>
       <c r="E22">
-        <v>0.04377502420299551</v>
+        <v>0.07971866224137081</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.952781360403719</v>
+        <v>2.775323852624922</v>
       </c>
       <c r="H22">
-        <v>2.546010404700667</v>
+        <v>1.998628964106331</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2401610198726729</v>
+        <v>0.2094006386239613</v>
       </c>
       <c r="M22">
-        <v>0.7917790248887471</v>
+        <v>0.3888275827413423</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.686754945911616</v>
+        <v>1.994159785391673</v>
       </c>
       <c r="C23">
-        <v>0.7858754709892253</v>
+        <v>0.2410005785294516</v>
       </c>
       <c r="D23">
-        <v>0.3551471234214461</v>
+        <v>0.1161525224765541</v>
       </c>
       <c r="E23">
-        <v>0.04363669952931026</v>
+        <v>0.07968531592806016</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.770916856405165</v>
+        <v>2.737039888581592</v>
       </c>
       <c r="H23">
-        <v>2.463237447642371</v>
+        <v>1.982714727875305</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2318470064824538</v>
+        <v>0.2078864454413889</v>
       </c>
       <c r="M23">
-        <v>0.7597270468985826</v>
+        <v>0.3820478176125093</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.946081085618289</v>
+        <v>1.829823848353556</v>
       </c>
       <c r="C24">
-        <v>0.6728589705293757</v>
+        <v>0.2110363854915249</v>
       </c>
       <c r="D24">
-        <v>0.2979409332199907</v>
+        <v>0.1025111267139351</v>
       </c>
       <c r="E24">
-        <v>0.0431652512223859</v>
+        <v>0.07955863198349578</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.109781630307992</v>
+        <v>2.594386698134429</v>
       </c>
       <c r="H24">
-        <v>2.163296375872847</v>
+        <v>1.923977986744234</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2014206359442454</v>
+        <v>0.2023322812490989</v>
       </c>
       <c r="M24">
-        <v>0.641792267941554</v>
+        <v>0.3567650557085997</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.18184319070815</v>
+        <v>1.656851641013589</v>
       </c>
       <c r="C25">
-        <v>0.5553911290459723</v>
+        <v>0.1785089396930459</v>
       </c>
       <c r="D25">
-        <v>0.2391660131335982</v>
+        <v>0.08798396574930223</v>
       </c>
       <c r="E25">
-        <v>0.04274213601985899</v>
+        <v>0.0794208269759471</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.443503668839526</v>
+        <v>2.445390200901016</v>
       </c>
       <c r="H25">
-        <v>1.862947967942091</v>
+        <v>1.863848377369095</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1704337146274568</v>
+        <v>0.1967253336326849</v>
       </c>
       <c r="M25">
-        <v>0.5203774517989359</v>
+        <v>0.3303296483190863</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_236/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_236/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.533109716989713</v>
+        <v>2.640586149101921</v>
       </c>
       <c r="C2">
-        <v>0.1543646454752547</v>
+        <v>0.4713754044598488</v>
       </c>
       <c r="D2">
-        <v>0.07743884050346139</v>
+        <v>0.1976949718202405</v>
       </c>
       <c r="E2">
-        <v>0.07931802388768106</v>
+        <v>0.0424827582700309</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.339728432799404</v>
+        <v>2.982907469363226</v>
       </c>
       <c r="H2">
-        <v>1.822285499500623</v>
+        <v>1.656875649056673</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1929245253808247</v>
+        <v>0.1488225974147568</v>
       </c>
       <c r="M2">
-        <v>0.3115730814082909</v>
+        <v>0.4346156950975697</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.451471518257051</v>
+        <v>2.283672801889736</v>
       </c>
       <c r="C3">
-        <v>0.1378724350559821</v>
+        <v>0.4154320181547462</v>
       </c>
       <c r="D3">
-        <v>0.07038185066704727</v>
+        <v>0.1704176690946468</v>
       </c>
       <c r="E3">
-        <v>0.07924734858596338</v>
+        <v>0.04233111361887087</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.270569127427819</v>
+        <v>2.685170793283532</v>
       </c>
       <c r="H3">
-        <v>1.795776888863912</v>
+        <v>1.5245987457007</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1905517593952339</v>
+        <v>0.1347724060995716</v>
       </c>
       <c r="M3">
-        <v>0.299297891348651</v>
+        <v>0.3782014342623015</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.402432580623554</v>
+        <v>2.068422804612908</v>
       </c>
       <c r="C4">
-        <v>0.1276799121132228</v>
+        <v>0.381418746178781</v>
       </c>
       <c r="D4">
-        <v>0.06609154514812587</v>
+        <v>0.1539928195508224</v>
       </c>
       <c r="E4">
-        <v>0.07920340269332382</v>
+        <v>0.04224760854356568</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.229289719950401</v>
+        <v>2.508245109342624</v>
       </c>
       <c r="H4">
-        <v>1.780308884845141</v>
+        <v>1.446443555175762</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1891946997608684</v>
+        <v>0.1263949553992987</v>
       </c>
       <c r="M4">
-        <v>0.291974670912424</v>
+        <v>0.3442454969669484</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.382721376698214</v>
+        <v>1.981555119125289</v>
       </c>
       <c r="C5">
-        <v>0.1235094406980295</v>
+        <v>0.3676221740564074</v>
       </c>
       <c r="D5">
-        <v>0.06435377508535112</v>
+        <v>0.1473695795354644</v>
       </c>
       <c r="E5">
-        <v>0.07918534789528953</v>
+        <v>0.04221569357651322</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.212762921298946</v>
+        <v>2.437462683758838</v>
       </c>
       <c r="H5">
-        <v>1.774207552401094</v>
+        <v>1.415287749310323</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1886667605471644</v>
+        <v>0.1230378472828093</v>
       </c>
       <c r="M5">
-        <v>0.2890440336207192</v>
+        <v>0.3305586077277241</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.379464784777781</v>
+        <v>1.967178434745108</v>
       </c>
       <c r="C6">
-        <v>0.1228159061945462</v>
+        <v>0.365334575791934</v>
       </c>
       <c r="D6">
-        <v>0.06406585262300268</v>
+        <v>0.1462737119881439</v>
       </c>
       <c r="E6">
-        <v>0.07918234083124487</v>
+        <v>0.04221051362003414</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.210036382411118</v>
+        <v>2.425784291707544</v>
       </c>
       <c r="H6">
-        <v>1.773206594378422</v>
+        <v>1.410154079594292</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1885806102131298</v>
+        <v>0.1224836665921742</v>
       </c>
       <c r="M6">
-        <v>0.2885606393703952</v>
+        <v>0.3282944110810675</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.402165645930438</v>
+        <v>2.067248006283648</v>
       </c>
       <c r="C7">
-        <v>0.1276237366097916</v>
+        <v>0.3812324467721737</v>
       </c>
       <c r="D7">
-        <v>0.0660680664281017</v>
+        <v>0.1539032269725595</v>
       </c>
       <c r="E7">
-        <v>0.07920315980287718</v>
+        <v>0.04224716994157762</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.229065643717945</v>
+        <v>2.50728538963287</v>
       </c>
       <c r="H7">
-        <v>1.780225783938789</v>
+        <v>1.446020668082468</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1891874783024505</v>
+        <v>0.1263494578928501</v>
       </c>
       <c r="M7">
-        <v>0.2919349303126921</v>
+        <v>0.3440603283823052</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.504734663841703</v>
+        <v>2.51663079541828</v>
       </c>
       <c r="C8">
-        <v>0.1486917051171588</v>
+        <v>0.4520034036953291</v>
       </c>
       <c r="D8">
-        <v>0.0749966158950599</v>
+        <v>0.1882154602451038</v>
       </c>
       <c r="E8">
-        <v>0.07929376459233373</v>
+        <v>0.04242828529223819</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.315634587036101</v>
+        <v>2.878922971805423</v>
       </c>
       <c r="H8">
-        <v>1.812976770723282</v>
+        <v>1.610582070888739</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1920856571840233</v>
+        <v>0.1439225743811505</v>
       </c>
       <c r="M8">
-        <v>0.3072961400253362</v>
+        <v>0.4150089701112734</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.714551157517576</v>
+        <v>3.435436416904906</v>
       </c>
       <c r="C9">
-        <v>0.189494969528198</v>
+        <v>0.5944948372917338</v>
       </c>
       <c r="D9">
-        <v>0.092853338048414</v>
+        <v>0.2586405302150183</v>
       </c>
       <c r="E9">
-        <v>0.07946743185176131</v>
+        <v>0.04287529910212595</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.494941826692639</v>
+        <v>3.662655472128421</v>
       </c>
       <c r="H9">
-        <v>1.883677835080732</v>
+        <v>1.961483380520008</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1985629841359184</v>
+        <v>0.1806619263068043</v>
       </c>
       <c r="M9">
-        <v>0.3391238050378576</v>
+        <v>0.5606294142918813</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.874087377492174</v>
+        <v>4.143941518816916</v>
       </c>
       <c r="C10">
-        <v>0.2191848000686605</v>
+        <v>0.7031132582211512</v>
       </c>
       <c r="D10">
-        <v>0.1061985205480909</v>
+        <v>0.3131994323066465</v>
       </c>
       <c r="E10">
-        <v>0.07959309178150975</v>
+        <v>0.04328532467341217</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.632715167387829</v>
+        <v>4.284994108936331</v>
       </c>
       <c r="H10">
-        <v>1.939663467977056</v>
+        <v>2.242624637341862</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2038094517279916</v>
+        <v>0.2095152101143469</v>
       </c>
       <c r="M10">
-        <v>0.3635610544735144</v>
+        <v>0.6732748251125145</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.947855668173986</v>
+        <v>4.476298336753985</v>
       </c>
       <c r="C11">
-        <v>0.232634131775967</v>
+        <v>0.7538238729856346</v>
       </c>
       <c r="D11">
-        <v>0.1123217188809065</v>
+        <v>0.3388682784610921</v>
       </c>
       <c r="E11">
-        <v>0.0796499493889844</v>
+        <v>0.04349665040741191</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.696750523913863</v>
+        <v>4.58163016474424</v>
       </c>
       <c r="H11">
-        <v>1.966031093588242</v>
+        <v>2.377200295450507</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2063029207502751</v>
+        <v>0.2231682736251628</v>
       </c>
       <c r="M11">
-        <v>0.3749103662924327</v>
+        <v>0.7261949209642395</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.975963022450969</v>
+        <v>4.603870428073492</v>
       </c>
       <c r="C12">
-        <v>0.2377192657182263</v>
+        <v>0.7732574606203571</v>
       </c>
       <c r="D12">
-        <v>0.114648176339216</v>
+        <v>0.3487337194034978</v>
       </c>
       <c r="E12">
-        <v>0.07967144498094059</v>
+        <v>0.04358096688886737</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.721198459571326</v>
+        <v>4.696238515582877</v>
       </c>
       <c r="H12">
-        <v>1.97614673323335</v>
+        <v>2.429279300668156</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2072625489766438</v>
+        <v>0.2284261307972173</v>
       </c>
       <c r="M12">
-        <v>0.3792417407652593</v>
+        <v>0.7465191295519986</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.969901892172118</v>
+        <v>4.576314452709084</v>
       </c>
       <c r="C13">
-        <v>0.23662443446824</v>
+        <v>0.769061064202532</v>
       </c>
       <c r="D13">
-        <v>0.1141467848791109</v>
+        <v>0.3466021590458013</v>
       </c>
       <c r="E13">
-        <v>0.07966681694263333</v>
+        <v>0.04356260393306388</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.715924248992792</v>
+        <v>4.671448375704756</v>
       </c>
       <c r="H13">
-        <v>1.973962308993237</v>
+        <v>2.418010673155209</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2070551899718538</v>
+        <v>0.2272896476255966</v>
       </c>
       <c r="M13">
-        <v>0.378307402890897</v>
+        <v>0.7421285343876178</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.950164605170414</v>
+        <v>4.48675769258324</v>
       </c>
       <c r="C14">
-        <v>0.2330526439896516</v>
+        <v>0.7554177897675629</v>
       </c>
       <c r="D14">
-        <v>0.1125129617621354</v>
+        <v>0.3396768601438538</v>
       </c>
       <c r="E14">
-        <v>0.07965171849777164</v>
+        <v>0.0435034965213108</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.698757860049398</v>
+        <v>4.591011310464921</v>
       </c>
       <c r="H14">
-        <v>1.966860683732079</v>
+        <v>2.381461474584853</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2063815609293584</v>
+        <v>0.2235990082215977</v>
       </c>
       <c r="M14">
-        <v>0.3752660359142084</v>
+        <v>0.7278610325667501</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.938097498833542</v>
+        <v>4.432133732189016</v>
       </c>
       <c r="C15">
-        <v>0.2308638083416952</v>
+        <v>0.7470923328492631</v>
       </c>
       <c r="D15">
-        <v>0.1115132112261392</v>
+        <v>0.335454565346609</v>
       </c>
       <c r="E15">
-        <v>0.07964246595035429</v>
+        <v>0.04346787428177823</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.68826898429819</v>
+        <v>4.542048761314959</v>
       </c>
       <c r="H15">
-        <v>1.962527809438257</v>
+        <v>2.359224706221426</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2059709513062842</v>
+        <v>0.2213501923629337</v>
       </c>
       <c r="M15">
-        <v>0.3734074966501026</v>
+        <v>0.719160223329645</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.869290578307016</v>
+        <v>4.122445727872503</v>
       </c>
       <c r="C16">
-        <v>0.2183047404424485</v>
+        <v>0.6998289341414647</v>
       </c>
       <c r="D16">
-        <v>0.10579942665602</v>
+        <v>0.3115409042413404</v>
       </c>
       <c r="E16">
-        <v>0.07958937060211424</v>
+        <v>0.0432720721928308</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.628557989645401</v>
+        <v>4.265907898696952</v>
       </c>
       <c r="H16">
-        <v>1.937958504879759</v>
+        <v>2.233977198122147</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2036486509970814</v>
+        <v>0.2086345439413151</v>
       </c>
       <c r="M16">
-        <v>0.3628240473872424</v>
+        <v>0.6698536848538481</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.827386488562126</v>
+        <v>3.93521736014867</v>
       </c>
       <c r="C17">
-        <v>0.2105858568837959</v>
+        <v>0.6711962463690497</v>
       </c>
       <c r="D17">
-        <v>0.1023077684346561</v>
+        <v>0.2971036451547491</v>
       </c>
       <c r="E17">
-        <v>0.07955672626029853</v>
+        <v>0.04315878277758478</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.59227832881507</v>
+        <v>4.100192198380199</v>
       </c>
       <c r="H17">
-        <v>1.923117435960989</v>
+        <v>2.158958418689679</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2022513862934829</v>
+        <v>0.2009769684136984</v>
       </c>
       <c r="M17">
-        <v>0.3563911634029537</v>
+        <v>0.6400642011024971</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.803396721833622</v>
+        <v>3.828456613521041</v>
       </c>
       <c r="C18">
-        <v>0.2061408007130296</v>
+        <v>0.6548468200572586</v>
       </c>
       <c r="D18">
-        <v>0.1003043797765031</v>
+        <v>0.2888781382549439</v>
       </c>
       <c r="E18">
-        <v>0.07953792078850719</v>
+        <v>0.04309590588001155</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.571539183374739</v>
+        <v>4.00612797333261</v>
       </c>
       <c r="H18">
-        <v>1.914665821495106</v>
+        <v>2.116428005676852</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2014577686606032</v>
+        <v>0.1966213887786097</v>
       </c>
       <c r="M18">
-        <v>0.3527130290093936</v>
+        <v>0.6230850028574082</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.795293462528718</v>
+        <v>3.792461054358739</v>
       </c>
       <c r="C19">
-        <v>0.2046348511131271</v>
+        <v>0.6493304574944148</v>
       </c>
       <c r="D19">
-        <v>0.09962690594058188</v>
+        <v>0.2861059435813758</v>
       </c>
       <c r="E19">
-        <v>0.07953154827841968</v>
+        <v>0.04307498912893171</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.564539140262667</v>
+        <v>3.974484937001165</v>
       </c>
       <c r="H19">
-        <v>1.911818732165955</v>
+        <v>2.102129725882833</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2011907884972572</v>
+        <v>0.1951547198335533</v>
       </c>
       <c r="M19">
-        <v>0.35147143032966</v>
+        <v>0.6173615254099829</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.831835613782744</v>
+        <v>3.955050257643506</v>
       </c>
       <c r="C20">
-        <v>0.2114080975056822</v>
+        <v>0.6742315985451057</v>
       </c>
       <c r="D20">
-        <v>0.1026789506971824</v>
+        <v>0.2986322433280577</v>
       </c>
       <c r="E20">
-        <v>0.07956020427607458</v>
+        <v>0.04317060138490891</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.596127093579156</v>
+        <v>4.117701177894105</v>
       </c>
       <c r="H20">
-        <v>1.924688529370513</v>
+        <v>2.16687922722744</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.202399086840515</v>
+        <v>0.2017869932760021</v>
       </c>
       <c r="M20">
-        <v>0.3570736880639203</v>
+        <v>0.6432190141316312</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.955957222909547</v>
+        <v>4.513013766142137</v>
       </c>
       <c r="C21">
-        <v>0.2341019755105833</v>
+        <v>0.7594185096081958</v>
       </c>
       <c r="D21">
-        <v>0.1129926436859279</v>
+        <v>0.3417068471498936</v>
       </c>
       <c r="E21">
-        <v>0.07965615416028626</v>
+        <v>0.04352073486588326</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.703794613305718</v>
+        <v>4.614572883328663</v>
       </c>
       <c r="H21">
-        <v>1.96894304193637</v>
+        <v>2.392165146506329</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2065790036406696</v>
+        <v>0.2246805542065147</v>
       </c>
       <c r="M21">
-        <v>0.3761584447906685</v>
+        <v>0.7320436446879768</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.038086248755121</v>
+        <v>4.887831869661625</v>
       </c>
       <c r="C22">
-        <v>0.2488882163031292</v>
+        <v>0.8164626105900368</v>
       </c>
       <c r="D22">
-        <v>0.1197784190673303</v>
+        <v>0.3707182150650397</v>
       </c>
       <c r="E22">
-        <v>0.07971866224137081</v>
+        <v>0.04377502420303991</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.775323852624922</v>
+        <v>4.952781360403719</v>
       </c>
       <c r="H22">
-        <v>1.998628964106331</v>
+        <v>2.546010404700553</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2094006386239613</v>
+        <v>0.2401610198725592</v>
       </c>
       <c r="M22">
-        <v>0.3888275827413423</v>
+        <v>0.7917790248887826</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.994159785391673</v>
+        <v>4.686754945911559</v>
       </c>
       <c r="C23">
-        <v>0.2410005785294516</v>
+        <v>0.7858754709892821</v>
       </c>
       <c r="D23">
-        <v>0.1161525224765541</v>
+        <v>0.3551471234217871</v>
       </c>
       <c r="E23">
-        <v>0.07968531592806016</v>
+        <v>0.04363669952928384</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.737039888581592</v>
+        <v>4.770916856405165</v>
       </c>
       <c r="H23">
-        <v>1.982714727875305</v>
+        <v>2.463237447642598</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2078864454413889</v>
+        <v>0.2318470064828517</v>
       </c>
       <c r="M23">
-        <v>0.3820478176125093</v>
+        <v>0.7597270468985684</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.829823848353556</v>
+        <v>3.946081085618232</v>
       </c>
       <c r="C24">
-        <v>0.2110363854915249</v>
+        <v>0.6728589705295747</v>
       </c>
       <c r="D24">
-        <v>0.1025111267139351</v>
+        <v>0.2979409332201328</v>
       </c>
       <c r="E24">
-        <v>0.07955863198349578</v>
+        <v>0.04316525122244386</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.594386698134429</v>
+        <v>4.109781630308049</v>
       </c>
       <c r="H24">
-        <v>1.923977986744234</v>
+        <v>2.163296375872989</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2023322812490989</v>
+        <v>0.2014206359441744</v>
       </c>
       <c r="M24">
-        <v>0.3567650557085997</v>
+        <v>0.6417922679415327</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.656851641013589</v>
+        <v>3.18184319070815</v>
       </c>
       <c r="C25">
-        <v>0.1785089396930459</v>
+        <v>0.5553911290459439</v>
       </c>
       <c r="D25">
-        <v>0.08798396574930223</v>
+        <v>0.2391660131334277</v>
       </c>
       <c r="E25">
-        <v>0.0794208269759471</v>
+        <v>0.04274213601982502</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.445390200901016</v>
+        <v>3.443503668839583</v>
       </c>
       <c r="H25">
-        <v>1.863848377369095</v>
+        <v>1.862947967942148</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1967253336326849</v>
+        <v>0.1704337146274852</v>
       </c>
       <c r="M25">
-        <v>0.3303296483190863</v>
+        <v>0.5203774517989146</v>
       </c>
       <c r="N25">
         <v>0</v>
